--- a/Application/data/造价表2.xlsx
+++ b/Application/data/造价表2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\utility\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\114_temp\008_代码集\002_extras\smallCharpTool\Application\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB20505-AFE0-494A-909D-4B8691737B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFBFC65-A7F6-4AA5-B0DE-8471CD258E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18450" yWindow="1440" windowWidth="21705" windowHeight="15555" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="21705" windowHeight="15555" activeTab="1" xr2:uid="{68EA85B6-491D-435E-90AD-A6EBEA5E3C06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2258,12 +2258,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B6DE9-BFC6-4316-BBA8-8CC4CA230341}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="12" max="12" width="24.125" customWidth="1"/>
     <col min="13" max="13" width="24.5" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
